--- a/data/possible predictors.xlsx
+++ b/data/possible predictors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="253">
   <si>
     <t>distance_survey_mean_1</t>
   </si>
@@ -562,6 +562,222 @@
   </si>
   <si>
     <t>distance_survey_median_7*satis_competence</t>
+  </si>
+  <si>
+    <t>star_user</t>
+  </si>
+  <si>
+    <t>probability_review_mean_1*real_extraversion</t>
+  </si>
+  <si>
+    <t>probability_review_mean_1*real_agreeableness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_1*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_1*real_emotionstability</t>
+  </si>
+  <si>
+    <t>probability_review_mean_1*real_openness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_2*real_extraversion</t>
+  </si>
+  <si>
+    <t>probability_review_mean_2*real_agreeableness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_2*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_2*real_emotionstability</t>
+  </si>
+  <si>
+    <t>probability_review_mean_2*real_openness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_3*real_extraversion</t>
+  </si>
+  <si>
+    <t>probability_review_mean_3*real_agreeableness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_3*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_3*real_emotionstability</t>
+  </si>
+  <si>
+    <t>probability_review_mean_3*real_openness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_4*real_extraversion</t>
+  </si>
+  <si>
+    <t>probability_review_mean_4*real_agreeableness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_4*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_4*real_emotionstability</t>
+  </si>
+  <si>
+    <t>probability_review_mean_4*real_openness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_5*real_extraversion</t>
+  </si>
+  <si>
+    <t>probability_review_mean_5*real_agreeableness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_5*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_5*real_emotionstability</t>
+  </si>
+  <si>
+    <t>probability_review_mean_5*real_openness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_6*real_extraversion</t>
+  </si>
+  <si>
+    <t>probability_review_mean_6*real_agreeableness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_6*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_6*real_emotionstability</t>
+  </si>
+  <si>
+    <t>probability_review_mean_6*real_openness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_7*real_extraversion</t>
+  </si>
+  <si>
+    <t>probability_review_mean_7*real_agreeableness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_7*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_7*real_emotionstability</t>
+  </si>
+  <si>
+    <t>probability_review_mean_7*real_openness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_1*combined_autonomy</t>
+  </si>
+  <si>
+    <t>probability_review_mean_2*combined_autonomy</t>
+  </si>
+  <si>
+    <t>probability_review_mean_3*combined_autonomy</t>
+  </si>
+  <si>
+    <t>probability_review_mean_4*combined_autonomy</t>
+  </si>
+  <si>
+    <t>probability_review_mean_5*combined_autonomy</t>
+  </si>
+  <si>
+    <t>probability_review_mean_6*combined_autonomy</t>
+  </si>
+  <si>
+    <t>probability_review_mean_7*combined_autonomy</t>
+  </si>
+  <si>
+    <t>probability_review_mean_1*combined_relatedness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_2*combined_relatedness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_3*combined_relatedness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_4*combined_relatedness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_5*combined_relatedness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_6*combined_relatedness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_7*combined_relatedness</t>
+  </si>
+  <si>
+    <t>probability_review_mean_1*combined_competence</t>
+  </si>
+  <si>
+    <t>probability_review_mean_2*combined_competence</t>
+  </si>
+  <si>
+    <t>probability_review_mean_3*combined_competence</t>
+  </si>
+  <si>
+    <t>probability_review_mean_4*combined_competence</t>
+  </si>
+  <si>
+    <t>probability_review_mean_5*combined_competence</t>
+  </si>
+  <si>
+    <t>probability_review_mean_6*combined_competence</t>
+  </si>
+  <si>
+    <t>probability_review_mean_7*combined_competence</t>
+  </si>
+  <si>
+    <t>satis_autonomy*real_extraversion</t>
+  </si>
+  <si>
+    <t>satis_autonomy*real_agreeableness</t>
+  </si>
+  <si>
+    <t>satis_autonomy*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>satis_autonomy*real_emotionstability</t>
+  </si>
+  <si>
+    <t>satis_autonomy*real_openness</t>
+  </si>
+  <si>
+    <t>satis_relatedness*real_extraversion</t>
+  </si>
+  <si>
+    <t>satis_relatedness*real_agreeableness</t>
+  </si>
+  <si>
+    <t>satis_relatedness*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>satis_relatedness*real_emotionstability</t>
+  </si>
+  <si>
+    <t>satis_relatedness*real_openness</t>
+  </si>
+  <si>
+    <t>satis_competence*real_extraversion</t>
+  </si>
+  <si>
+    <t>satis_competence*real_agreeableness</t>
+  </si>
+  <si>
+    <t>satis_competence*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>satis_competence*real_emotionstability</t>
+  </si>
+  <si>
+    <t>satis_competence*real_openness</t>
   </si>
 </sst>
 </file>
@@ -886,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -900,10 +1116,10 @@
     <col min="10" max="10" width="1.7265625" style="1" customWidth="1"/>
     <col min="11" max="11" width="32.81640625" customWidth="1"/>
     <col min="12" max="12" width="45.1796875" customWidth="1"/>
-    <col min="13" max="13" width="45.08984375" customWidth="1"/>
+    <col min="13" max="15" width="45.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -923,10 +1139,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="N1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -948,8 +1170,14 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -971,8 +1199,14 @@
       <c r="M3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1225,14 @@
       <c r="M4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1011,8 +1251,14 @@
       <c r="M5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1034,8 +1280,14 @@
       <c r="M6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1057,8 +1309,14 @@
       <c r="M7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1080,8 +1338,14 @@
       <c r="M8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1103,8 +1367,14 @@
       <c r="M9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1126,8 +1396,14 @@
       <c r="M10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1146,8 +1422,14 @@
       <c r="M11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -1163,8 +1445,14 @@
       <c r="M12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1180,8 +1468,14 @@
       <c r="M13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -1197,8 +1491,14 @@
       <c r="M14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1214,8 +1514,14 @@
       <c r="M15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1231,8 +1537,14 @@
       <c r="M16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1248,8 +1560,14 @@
       <c r="M17" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1265,8 +1583,14 @@
       <c r="M18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -1282,8 +1606,14 @@
       <c r="M19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -1299,8 +1629,14 @@
       <c r="M20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -1316,8 +1652,14 @@
       <c r="M21" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1330,8 +1672,14 @@
       <c r="M22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -1344,8 +1692,14 @@
       <c r="M23" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -1358,8 +1712,14 @@
       <c r="M24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1372,8 +1732,14 @@
       <c r="M25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1386,8 +1752,14 @@
       <c r="M26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26" t="s">
+        <v>190</v>
+      </c>
+      <c r="O26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1400,8 +1772,14 @@
       <c r="M27" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -1414,8 +1792,11 @@
       <c r="M28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -1428,8 +1809,11 @@
       <c r="M29" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -1442,8 +1826,11 @@
       <c r="M30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1456,8 +1843,11 @@
       <c r="M31" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1470,8 +1860,11 @@
       <c r="M32" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1484,8 +1877,11 @@
       <c r="M33" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1498,8 +1894,11 @@
       <c r="M34" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1512,8 +1911,11 @@
       <c r="M35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1523,8 +1925,11 @@
       <c r="M36" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1534,8 +1939,11 @@
       <c r="M37" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1545,8 +1953,11 @@
       <c r="M38" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1556,8 +1967,11 @@
       <c r="M39" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1567,8 +1981,11 @@
       <c r="M40" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1578,8 +1995,11 @@
       <c r="M41" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -1589,8 +2009,11 @@
       <c r="M42" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1600,8 +2023,11 @@
       <c r="M43" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1611,8 +2037,11 @@
       <c r="M44" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -1622,8 +2051,11 @@
       <c r="M45" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -1633,8 +2065,11 @@
       <c r="M46" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1644,8 +2079,11 @@
       <c r="M47" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -1655,8 +2093,11 @@
       <c r="M48" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -1666,8 +2107,11 @@
       <c r="M49" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -1677,8 +2121,11 @@
       <c r="M50" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -1688,155 +2135,238 @@
       <c r="M51" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>70</v>
       </c>
       <c r="M52" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>71</v>
       </c>
       <c r="M53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>72</v>
       </c>
       <c r="M54" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="M55" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="M56" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>14</v>
       </c>
       <c r="M57" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>15</v>
       </c>
       <c r="M58" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>16</v>
       </c>
       <c r="M59" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>17</v>
       </c>
       <c r="M60" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>18</v>
       </c>
       <c r="M61" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
       <c r="M62" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M63" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M64" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="65" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M65" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M66" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="67" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M67" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="68" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M68" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="69" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M69" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="70" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M70" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M71" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="72" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M72" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="73" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M73" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="74" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M74" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="75" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="N74" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M75" t="s">
         <v>180</v>
+      </c>
+      <c r="N75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="N76" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/data/possible predictors.xlsx
+++ b/data/possible predictors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="3098" yWindow="0" windowWidth="22260" windowHeight="12653"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="395">
   <si>
     <t>distance_survey_mean_1</t>
   </si>
@@ -778,6 +778,432 @@
   </si>
   <si>
     <t>satis_competence*real_openness</t>
+  </si>
+  <si>
+    <t>tste_2_0</t>
+  </si>
+  <si>
+    <t>tste_2_1</t>
+  </si>
+  <si>
+    <t>tste_3_0</t>
+  </si>
+  <si>
+    <t>tste_3_1</t>
+  </si>
+  <si>
+    <t>tste_3_2</t>
+  </si>
+  <si>
+    <t>tste_4_0</t>
+  </si>
+  <si>
+    <t>tste_4_1</t>
+  </si>
+  <si>
+    <t>tste_4_2</t>
+  </si>
+  <si>
+    <t>tste_4_3</t>
+  </si>
+  <si>
+    <t>tste_5_0</t>
+  </si>
+  <si>
+    <t>tste_5_1</t>
+  </si>
+  <si>
+    <t>tste_5_2</t>
+  </si>
+  <si>
+    <t>tste_5_3</t>
+  </si>
+  <si>
+    <t>tste_5_4</t>
+  </si>
+  <si>
+    <t>tste_6_0</t>
+  </si>
+  <si>
+    <t>tste_6_1</t>
+  </si>
+  <si>
+    <t>tste_6_2</t>
+  </si>
+  <si>
+    <t>tste_6_3</t>
+  </si>
+  <si>
+    <t>tste_6_4</t>
+  </si>
+  <si>
+    <t>tste_6_5</t>
+  </si>
+  <si>
+    <t>tste_7_0</t>
+  </si>
+  <si>
+    <t>tste_7_1</t>
+  </si>
+  <si>
+    <t>tste_7_2</t>
+  </si>
+  <si>
+    <t>tste_7_3</t>
+  </si>
+  <si>
+    <t>tste_7_4</t>
+  </si>
+  <si>
+    <t>tste_7_5</t>
+  </si>
+  <si>
+    <t>tste_7_6</t>
+  </si>
+  <si>
+    <t>tste_8_0</t>
+  </si>
+  <si>
+    <t>tste_8_1</t>
+  </si>
+  <si>
+    <t>tste_8_2</t>
+  </si>
+  <si>
+    <t>tste_8_3</t>
+  </si>
+  <si>
+    <t>tste_8_4</t>
+  </si>
+  <si>
+    <t>tste_8_5</t>
+  </si>
+  <si>
+    <t>tste_8_6</t>
+  </si>
+  <si>
+    <t>tste_8_7</t>
+  </si>
+  <si>
+    <t>tste_9_0</t>
+  </si>
+  <si>
+    <t>tste_9_1</t>
+  </si>
+  <si>
+    <t>tste_9_2</t>
+  </si>
+  <si>
+    <t>tste_9_3</t>
+  </si>
+  <si>
+    <t>tste_9_4</t>
+  </si>
+  <si>
+    <t>tste_9_5</t>
+  </si>
+  <si>
+    <t>tste_9_6</t>
+  </si>
+  <si>
+    <t>tste_9_7</t>
+  </si>
+  <si>
+    <t>tste_9_8</t>
+  </si>
+  <si>
+    <t>tste_10_0</t>
+  </si>
+  <si>
+    <t>tste_10_1</t>
+  </si>
+  <si>
+    <t>tste_10_2</t>
+  </si>
+  <si>
+    <t>tste_10_3</t>
+  </si>
+  <si>
+    <t>tste_10_4</t>
+  </si>
+  <si>
+    <t>tste_10_5</t>
+  </si>
+  <si>
+    <t>tste_10_6</t>
+  </si>
+  <si>
+    <t>tste_10_7</t>
+  </si>
+  <si>
+    <t>tste_10_8</t>
+  </si>
+  <si>
+    <t>tste_10_9</t>
+  </si>
+  <si>
+    <t>tste_7_0*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_1*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_2*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_3*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_4*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_5*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_6*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_0*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_1*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_2*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_3*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_4*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_5*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_6*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_0*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_1*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_2*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_3*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_4*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_5*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_6*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_0*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_1*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_2*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_3*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_4*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_5*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_6*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_0*real_openness</t>
+  </si>
+  <si>
+    <t>tste_7_1*real_openness</t>
+  </si>
+  <si>
+    <t>tste_7_2*real_openness</t>
+  </si>
+  <si>
+    <t>tste_7_3*real_openness</t>
+  </si>
+  <si>
+    <t>tste_7_4*real_openness</t>
+  </si>
+  <si>
+    <t>tste_7_5*real_openness</t>
+  </si>
+  <si>
+    <t>tste_7_6*real_openness</t>
+  </si>
+  <si>
+    <t>tste_7_0*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_7_1*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_7_2*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_7_3*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_7_4*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_7_5*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_7_6*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_7_0*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_7_1*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_7_2*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_7_3*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_7_4*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_7_5*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_7_6*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_7_0*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_7_1*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_7_2*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_7_3*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_7_4*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_7_5*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_7_6*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_4_0*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_4_1*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_4_2*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_4_3*real_extraversion</t>
+  </si>
+  <si>
+    <t>tste_4_0*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_4_1*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_4_2*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_4_3*real_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_4_0*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_4_1*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_4_2*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_4_3*real_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_4_0*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_4_1*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_4_2*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_4_3*real_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_4_0*real_openness</t>
+  </si>
+  <si>
+    <t>tste_4_1*real_openness</t>
+  </si>
+  <si>
+    <t>tste_4_2*real_openness</t>
+  </si>
+  <si>
+    <t>tste_4_3*real_openness</t>
+  </si>
+  <si>
+    <t>tste_4_0*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_4_1*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_4_2*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_4_3*satis_autonomy</t>
+  </si>
+  <si>
+    <t>tste_4_0*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_4_1*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_4_2*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_4_3*satis_relatedness</t>
+  </si>
+  <si>
+    <t>tste_4_0*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_4_1*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_4_2*satis_competence</t>
+  </si>
+  <si>
+    <t>tste_4_3*satis_competence</t>
   </si>
 </sst>
 </file>
@@ -1102,24 +1528,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="7" max="7" width="42.08984375" customWidth="1"/>
-    <col min="9" max="9" width="34.7265625" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" customWidth="1"/>
-    <col min="12" max="12" width="45.1796875" customWidth="1"/>
-    <col min="13" max="15" width="45.08984375" customWidth="1"/>
+    <col min="7" max="7" width="42.06640625" customWidth="1"/>
+    <col min="9" max="9" width="34.73046875" customWidth="1"/>
+    <col min="10" max="10" width="1.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.796875" customWidth="1"/>
+    <col min="12" max="12" width="45.19921875" customWidth="1"/>
+    <col min="13" max="15" width="45.06640625" customWidth="1"/>
+    <col min="16" max="17" width="27.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +1574,14 @@
       <c r="O1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1176,8 +1609,14 @@
       <c r="O2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1205,8 +1644,14 @@
       <c r="O3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1231,8 +1676,14 @@
       <c r="O4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1257,8 +1708,14 @@
       <c r="O5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1286,8 +1743,14 @@
       <c r="O6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1315,8 +1778,14 @@
       <c r="O7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1344,8 +1813,14 @@
       <c r="O8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1373,8 +1848,14 @@
       <c r="O9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1402,8 +1883,14 @@
       <c r="O10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1428,8 +1915,14 @@
       <c r="O11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -1451,8 +1944,14 @@
       <c r="O12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1474,8 +1973,14 @@
       <c r="O13" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -1497,8 +2002,14 @@
       <c r="O14" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1520,8 +2031,14 @@
       <c r="O15" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1543,8 +2060,14 @@
       <c r="O16" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1566,8 +2089,14 @@
       <c r="O17" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1589,8 +2118,14 @@
       <c r="O18" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -1612,8 +2147,14 @@
       <c r="O19" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -1635,8 +2176,14 @@
       <c r="O20" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -1658,8 +2205,14 @@
       <c r="O21" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -1678,8 +2231,14 @@
       <c r="O22" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -1698,8 +2257,14 @@
       <c r="O23" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -1718,8 +2283,14 @@
       <c r="O24" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1738,8 +2309,14 @@
       <c r="O25" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1758,8 +2335,14 @@
       <c r="O26" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1778,8 +2361,14 @@
       <c r="O27" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -1795,8 +2384,14 @@
       <c r="N28" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -1812,8 +2407,14 @@
       <c r="N29" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -1829,8 +2430,14 @@
       <c r="N30" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1846,8 +2453,14 @@
       <c r="N31" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1863,8 +2476,14 @@
       <c r="N32" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P32" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1880,8 +2499,14 @@
       <c r="N33" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P33" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1897,8 +2522,14 @@
       <c r="N34" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P34" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1914,8 +2545,14 @@
       <c r="N35" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P35" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1928,8 +2565,14 @@
       <c r="N36" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P36" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1942,8 +2585,14 @@
       <c r="N37" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1956,8 +2605,14 @@
       <c r="N38" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P38" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1970,8 +2625,14 @@
       <c r="N39" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P39" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1984,8 +2645,14 @@
       <c r="N40" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P40" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1998,8 +2665,14 @@
       <c r="N41" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P41" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -2012,8 +2685,14 @@
       <c r="N42" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P42" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2026,8 +2705,14 @@
       <c r="N43" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2040,8 +2725,14 @@
       <c r="N44" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P44" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2054,8 +2745,14 @@
       <c r="N45" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P45" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2068,8 +2765,14 @@
       <c r="N46" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P46" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2082,8 +2785,14 @@
       <c r="N47" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P47" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2096,8 +2805,14 @@
       <c r="N48" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P48" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2110,8 +2825,11 @@
       <c r="N49" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -2124,8 +2842,11 @@
       <c r="N50" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -2138,8 +2859,11 @@
       <c r="N51" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -2149,8 +2873,11 @@
       <c r="N52" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -2160,8 +2887,11 @@
       <c r="N53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -2171,8 +2901,11 @@
       <c r="N54" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2182,8 +2915,11 @@
       <c r="N55" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P55" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2193,8 +2929,11 @@
       <c r="N56" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2204,8 +2943,11 @@
       <c r="N57" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2215,8 +2957,11 @@
       <c r="N58" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P58" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2226,8 +2971,11 @@
       <c r="N59" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2237,8 +2985,11 @@
       <c r="N60" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -2248,8 +2999,11 @@
       <c r="N61" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>181</v>
       </c>
@@ -2259,114 +3013,398 @@
       <c r="N62" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P62" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>253</v>
+      </c>
       <c r="M63" t="s">
         <v>168</v>
       </c>
       <c r="N63" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>254</v>
+      </c>
       <c r="M64" t="s">
         <v>169</v>
       </c>
       <c r="N64" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>255</v>
+      </c>
       <c r="M65" t="s">
         <v>170</v>
       </c>
       <c r="N65" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P65" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>256</v>
+      </c>
       <c r="M66" t="s">
         <v>171</v>
       </c>
       <c r="N66" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>257</v>
+      </c>
       <c r="M67" t="s">
         <v>172</v>
       </c>
       <c r="N67" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P67" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>258</v>
+      </c>
       <c r="M68" t="s">
         <v>173</v>
       </c>
       <c r="N68" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>259</v>
+      </c>
       <c r="M69" t="s">
         <v>174</v>
       </c>
       <c r="N69" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P69" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>260</v>
+      </c>
       <c r="M70" t="s">
         <v>175</v>
       </c>
       <c r="N70" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P70" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>261</v>
+      </c>
       <c r="M71" t="s">
         <v>176</v>
       </c>
       <c r="N71" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>262</v>
+      </c>
       <c r="M72" t="s">
         <v>177</v>
       </c>
       <c r="N72" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P72" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>263</v>
+      </c>
       <c r="M73" t="s">
         <v>178</v>
       </c>
       <c r="N73" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>264</v>
+      </c>
       <c r="M74" t="s">
         <v>179</v>
       </c>
       <c r="N74" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P74" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>265</v>
+      </c>
       <c r="M75" t="s">
         <v>180</v>
       </c>
       <c r="N75" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="P75" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>266</v>
+      </c>
       <c r="N76" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
